--- a/silhouetteـ_result_table.xlsx
+++ b/silhouetteـ_result_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>GA_Kmeans</t>
   </si>
@@ -32,12 +32,15 @@
   <si>
     <t>Birch</t>
   </si>
+  <si>
+    <t>WOA_Kmeans</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,10 +56,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -87,11 +104,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -202,12 +252,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:E10" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
-  <tableColumns count="4">
-    <tableColumn id="1" name="silhouette/ #cluster " totalsRowLabel="Total" dataDxfId="3"/>
-    <tableColumn id="2" name="GA_Kmeans" dataDxfId="2"/>
-    <tableColumn id="3" name="Kmeans" dataDxfId="1"/>
-    <tableColumn id="4" name="Birch" totalsRowFunction="count" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F10" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
+  <tableColumns count="5">
+    <tableColumn id="1" name="silhouette/ #cluster " totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="2" name="GA_Kmeans" dataDxfId="4"/>
+    <tableColumn id="3" name="Kmeans" dataDxfId="3"/>
+    <tableColumn id="4" name="Birch" totalsRowFunction="count" dataDxfId="2"/>
+    <tableColumn id="5" name="WOA_Kmeans" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -476,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -497,90 +548,117 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>0.23138338125767599</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>0.130313788597577</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>0.20349474677650201</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>0.20178655221575501</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>0.111252229538488</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>6.9762099350318907E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>0.12601244193320099</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>9.0894314467243997E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>0.21665150964825</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>0.113319937357101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>0.16600000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>0.118274740084338</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>7.7359167466585901E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>0.17599999999999999</v>
       </c>
+      <c r="F8" s="3">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/silhouetteـ_result_table.xlsx
+++ b/silhouetteـ_result_table.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -565,8 +565,8 @@
       <c r="E3" s="4">
         <v>0.35499999999999998</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.35499999999999998</v>
+      <c r="F3" s="4">
+        <v>7.3300000000000004E-2</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>0.19700000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/silhouetteـ_result_table.xlsx
+++ b/silhouetteـ_result_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>GA_Kmeans</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>WOA_Kmeans</t>
+  </si>
+  <si>
+    <t>8_cluster</t>
+  </si>
+  <si>
+    <t>7_cluster</t>
+  </si>
+  <si>
+    <t>6_cluster</t>
+  </si>
+  <si>
+    <t>5_cluster</t>
+  </si>
+  <si>
+    <t>4_cluster</t>
+  </si>
+  <si>
+    <t>3_cluster</t>
   </si>
 </sst>
 </file>
@@ -251,8 +269,3521 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GA_Kmeans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23138338125767599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20349474677650201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111252229538488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12601244193320099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21665150964825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.118274740084338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD89-49D4-AF40-FDC03E72DCF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kmeans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.130313788597577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20178655221575501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9762099350318907E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0894314467243997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113319937357101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7359167466585901E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD89-49D4-AF40-FDC03E72DCF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Birch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD89-49D4-AF40-FDC03E72DCF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WOA_Kmeans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.3300000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FD89-49D4-AF40-FDC03E72DCF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1651022240"/>
+        <c:axId val="1651025984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1651022240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651025984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1651025984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651022240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GA_Kmeans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23138338125767599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20349474677650201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111252229538488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12601244193320099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21665150964825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.118274740084338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-828E-4D14-856A-862E7199A209}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kmeans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.130313788597577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20178655221575501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9762099350318907E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0894314467243997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113319937357101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7359167466585901E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-828E-4D14-856A-862E7199A209}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Birch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-828E-4D14-856A-862E7199A209}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WOA_Kmeans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.3300000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-828E-4D14-856A-862E7199A209}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1642774752"/>
+        <c:axId val="1642781408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1642774752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1642781408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1642781408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1642774752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GA_Kmeans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23138338125767599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20349474677650201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111252229538488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12601244193320099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21665150964825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.118274740084338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4CD-4427-BC73-E1A8D03ADA0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kmeans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.130313788597577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20178655221575501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9762099350318907E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0894314467243997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.113319937357101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7359167466585901E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C4CD-4427-BC73-E1A8D03ADA0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Birch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C4CD-4427-BC73-E1A8D03ADA0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WOA_Kmeans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3_cluster</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4_cluster</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5_cluster</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6_cluster</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7_cluster</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8_cluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.3300000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C4CD-4427-BC73-E1A8D03ADA0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1644635488"/>
+        <c:axId val="1644637984"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1644635488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1644637984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1644637984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1644635488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>708837</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52940</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>653460</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1450902</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>642384</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F10" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F8" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
   <tableColumns count="5">
     <tableColumn id="1" name="silhouette/ #cluster " totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" name="GA_Kmeans" dataDxfId="4"/>
@@ -527,13 +4058,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -553,8 +4087,8 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>0.23138338125767599</v>
@@ -570,8 +4104,8 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>4</v>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>0.20349474677650201</v>
@@ -587,8 +4121,8 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>5</v>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <v>0.111252229538488</v>
@@ -600,12 +4134,12 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="F5" s="3">
-        <v>0.20799999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>6</v>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="4">
         <v>0.12601244193320099</v>
@@ -617,12 +4151,12 @@
         <v>0.156</v>
       </c>
       <c r="F6" s="3">
-        <v>0.156</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>7</v>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="4">
         <v>0.21665150964825</v>
@@ -634,12 +4168,12 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>0.16600000000000001</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>8</v>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="4">
         <v>0.118274740084338</v>
@@ -651,20 +4185,15 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="F8" s="3">
-        <v>0.17599999999999999</v>
+        <v>0.129</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/silhouetteـ_result_table.xlsx
+++ b/silhouetteـ_result_table.xlsx
@@ -3698,9 +3698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>708837</xdr:colOff>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>11075</xdr:rowOff>
+      <xdr:rowOff>640771</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4060,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="52.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/silhouetteـ_result_table.xlsx
+++ b/silhouetteـ_result_table.xlsx
@@ -627,16 +627,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.3300000000000004E-2</c:v>
+                  <c:v>0.14699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>0.153</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.4E-2</c:v>
@@ -1217,16 +1217,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.3300000000000004E-2</c:v>
+                  <c:v>0.14699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>0.153</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.4E-2</c:v>
@@ -1793,16 +1793,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.3300000000000004E-2</c:v>
+                  <c:v>0.14699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>0.153</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.4E-2</c:v>
@@ -4061,7 +4061,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4100,7 +4100,7 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="F3" s="4">
-        <v>7.3300000000000004E-2</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4117,7 +4117,7 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>7.0999999999999994E-2</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4151,7 +4151,7 @@
         <v>0.156</v>
       </c>
       <c r="F6" s="3">
-        <v>1.9E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
